--- a/ExportData/Data User1 Test22-13-04-2021.xlsx
+++ b/ExportData/Data User1 Test22-13-04-2021.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:P4"/>
+  <dimension ref="A3:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,9 +538,19 @@
           <t>1:0:0</t>
         </is>
       </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>47.65</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>0.050</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -550,12 +560,12 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>0.050</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>7.500</t>
+          <t>2.999</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
@@ -565,7 +575,7 @@
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>7.500</t>
+          <t>2.999</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
@@ -575,27 +585,556 @@
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>0.042</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>2.496</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>1:0:15</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>47.89</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>1.500</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>1.500</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>5.999</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>5.999</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
           <t>0.001</t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="N4" s="3" t="inlineStr">
-        <is>
-          <t>0.042</t>
-        </is>
-      </c>
-      <c r="O4" s="3" t="inlineStr">
-        <is>
-          <t>2.499</t>
-        </is>
-      </c>
-      <c r="P4" s="3" t="inlineStr">
-        <is>
-          <t>20.0</t>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>4.998</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>21.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>1:0:30</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>48.13</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>1.500</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>1.500</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>5.999</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>5.999</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N6" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O6" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P6" s="3" t="inlineStr">
+        <is>
+          <t>22.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>1:0:45</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>48.37</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>1.500</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>1.500</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>5.999</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>5.999</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>23.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>1:1:0</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>48.61</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>1.500</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>1.500</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>5.999</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>5.999</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N8" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O8" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P8" s="3" t="inlineStr">
+        <is>
+          <t>24.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>1:1:15</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>1.500</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>1.500</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>5.999</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>5.999</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N9" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O9" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P9" s="3" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>1:1:30</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>49.09</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>1.500</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>1.500</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>5.999</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>5.999</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N10" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O10" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P10" s="3" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>1:1:45</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>1.500</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>1.500</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>5.999</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>5.999</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P11" s="3" t="inlineStr">
+        <is>
+          <t>27.5</t>
         </is>
       </c>
     </row>
